--- a/data/trans_bre/P10_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-1,49%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,96</t>
+          <t>-7,36; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,43</t>
+          <t>-7,37; 4,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 8,08</t>
+          <t>-7,75; 5,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 9,93</t>
+          <t>-7,62; 4,83</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,69%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 3,85</t>
+          <t>-5,15; 12,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 3,06</t>
+          <t>-5,74; 13,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 4,58</t>
+          <t>-5,69; 15,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 3,6</t>
+          <t>-6,41; 17,21</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>19,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>21,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>32,13%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 35,79</t>
+          <t>-7,21; 56,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 34,32</t>
+          <t>-5,84; 60,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 71,59</t>
+          <t>-8,19; 172,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 67,48</t>
+          <t>-6,71; 198,72</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,41</t>
+          <t>-2,48; 10,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 5,17</t>
+          <t>-2,26; 11,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 6,45</t>
+          <t>-2,72; 13,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,18</t>
+          <t>-2,46; 14,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,26%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,49%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.160947988449623</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.217995328042554</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.0125969480355255</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.01307540403312881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 4,42</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 4,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; 5,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 4,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.357448124616287</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.696348504192525</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.07747764214864176</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.06995605480256278</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.420634497293761</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.913071431947497</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.05004414868150833</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.0431605265164134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,61%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; 12,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 13,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 15,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,41; 17,21</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.073389934391668</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.689447457273475</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.03605944784685501</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.03142632754349094</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>21,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>27,85%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>32,13%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.151984894552123</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.910874963017437</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.05688982813247975</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.06433677769765506</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,21; 56,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 60,57</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 172,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 198,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.6116120183311</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.04269533283605</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1588585220037491</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1685422917334799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>19.31617897034671</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>21.73120062641749</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.2784502733675572</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3194153047979849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 10,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 11,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 13,13</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 14,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.214578815634458</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.930935397194695</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.08188685460023166</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.06640185313308924</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>56.17421640401363</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>60.51357841757573</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.727184099602207</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.907402681473942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.887208299111232</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.840795104478355</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03326062603841057</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.03249959515741136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.475996634405016</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.425867867592635</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.02718946697581059</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.02621084802301385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.4124846961906</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.68815823019859</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1312718850326103</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1328221763130333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
